--- a/public/files/templates/productivity.xlsx
+++ b/public/files/templates/productivity.xlsx
@@ -1,80 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazem/apps/cost-control/public/files/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar.garana\Desktop\cost-control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="4284"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Productivity " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>csi_code</t>
-  </si>
-  <si>
-    <t>division</t>
-  </si>
-  <si>
-    <t>sub_divison</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>crew_structure</t>
-  </si>
-  <si>
-    <t>crew_hours</t>
-  </si>
-  <si>
-    <t>crew_equip</t>
-  </si>
-  <si>
-    <t>daily_output</t>
-  </si>
-  <si>
-    <t>man_hours</t>
-  </si>
-  <si>
-    <t>equip_hours</t>
-  </si>
-  <si>
-    <t>reduction_factor</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>sub_division2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>CSI_CODE</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Sub_Divison</t>
+  </si>
+  <si>
+    <t>Sub_Division2</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Crew_Structure</t>
+  </si>
+  <si>
+    <t>Daily_Output</t>
+  </si>
+  <si>
+    <t>Reduction_Factor</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sub_Division3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -128,11 +122,243 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -143,6 +369,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Productivity" displayName="Productivity" ref="A1:K68" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K68"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="CSI_CODE" dataDxfId="10"/>
+    <tableColumn id="2" name="Division" dataDxfId="9"/>
+    <tableColumn id="3" name="Sub_Divison" dataDxfId="8"/>
+    <tableColumn id="4" name="Sub_Division2" dataDxfId="7"/>
+    <tableColumn id="15" name="Sub_Division3" dataDxfId="6"/>
+    <tableColumn id="14" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" name="Unit" dataDxfId="4"/>
+    <tableColumn id="6" name="Crew_Structure" dataDxfId="3"/>
+    <tableColumn id="9" name="Daily_Output" dataDxfId="2"/>
+    <tableColumn id="12" name="Reduction_Factor" dataDxfId="1"/>
+    <tableColumn id="13" name="Source" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,29 +654,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="38.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="82.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -462,17 +709,28 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>